--- a/analysis/behavior/stats/raw/figure3.xlsx
+++ b/analysis/behavior/stats/raw/figure3.xlsx
@@ -9,12 +9,14 @@
   <sheets>
     <sheet name="a_cumm_train_anova_g_ltd" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="a_cumm_train_posthoc_g_ltd" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="e_cumm_train_anova_g_ltd" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="e_cumm_train_posthoc_g_ltd" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="b_test_anova_g_ltd" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="b_test_posthoc_g_ltd" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="f_test_anova_f_ltd" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="f_test_posthoc_f_ltd" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="b_test_anova_g_ltd" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="b_test_posthoc_g_ltd" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="c_ttest_stim_v_ctl_tot_g_ltd" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="d_rsum_stim_v_ctl_pref_g_ltd" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="e_anova_test_licks_sex_diff_ltd" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="e_test_licks_sex_diff_ltd_stat" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="f_pref_sex_diff_anova_ltd" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="f_pref_sex_diff_stats_ltd" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -502,7 +504,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>266387.0580053742</v>
+        <v>464884.8990042674</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -511,16 +513,16 @@
         <v>35</v>
       </c>
       <c r="F2" t="n">
-        <v>266387.0580053742</v>
+        <v>464884.8990042674</v>
       </c>
       <c r="G2" t="n">
-        <v>0.212357021131253</v>
+        <v>0.2618489496668616</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6477769795911127</v>
+        <v>0.6120663711085623</v>
       </c>
       <c r="I2" t="n">
-        <v>0.006030752812253256</v>
+        <v>0.007425842871728807</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
@@ -539,7 +541,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2733699.040540539</v>
+        <v>3573244.878378378</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -548,16 +550,16 @@
         <v>35</v>
       </c>
       <c r="F3" t="n">
-        <v>2733699.040540539</v>
+        <v>3573244.878378378</v>
       </c>
       <c r="G3" t="n">
-        <v>27.54599074301946</v>
+        <v>30.05164443737359</v>
       </c>
       <c r="H3" t="n">
-        <v>7.563298979459929e-06</v>
+        <v>3.722985372542222e-06</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4404117740527401</v>
+        <v>0.4619659456311648</v>
       </c>
       <c r="J3" t="n">
         <v>1</v>
@@ -578,7 +580,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>101424.0910384208</v>
+        <v>98696.08360992372</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -587,21 +589,260 @@
         <v>35</v>
       </c>
       <c r="F4" t="n">
-        <v>101424.0910384208</v>
+        <v>98696.08360992372</v>
       </c>
       <c r="G4" t="n">
-        <v>1.021995117762149</v>
+        <v>0.8300521551024386</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3189843736361845</v>
+        <v>0.3684898665486795</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02837141902943105</v>
+        <v>0.02316636748138904</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
           <t>ns</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>comparison</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Chr2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>coef</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>CI</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>p-value</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>df</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>sex</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Corrected p-value</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Significance</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Male vs Female</t>
+        </is>
+      </c>
+      <c r="C2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.47480360070212047±0.0882843953046905</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>5.378114660733191</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.3018, 0.6478</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>7.526987674779499e-08</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2402</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>3.010794729978556e-07</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>****</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Male vs Female</t>
+        </is>
+      </c>
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>-0.14312920278082647±0.10612878666867749</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>-1.3486369464268</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>-0.3511, 0.0649</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0.1774536073920221</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1698</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0.1774536073920221</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Stim vs Control</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.348832673238926±0.10127332442526865</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>3.444467486562424</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.1503, 0.5473</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>0.0005721854480872799</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1880</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>0.001715574343032165</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Stim vs Control</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>-0.26910013024402024±0.0938145381800434</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>-2.868426743492346</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>-0.453, -0.0852</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>0.004125187156073509</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2220</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>0.008233357143074384</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>**</t>
         </is>
       </c>
     </row>
@@ -659,17 +900,17 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>CS+ vs. CS- $AgRP^{Cre}$::Ai32</t>
+          <t>CS+ vs. CS- $AgRP^{Chr2}$</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.649389991146508</v>
+        <v>3.715697688159862</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001984332004358185</v>
+        <v>0.001718256032645253</v>
       </c>
       <c r="D2" t="n">
-        <v>0.005941191106017116</v>
+        <v>0.005145915959540222</v>
       </c>
       <c r="E2" t="n">
         <v>17</v>
@@ -686,17 +927,17 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>CS+ vs. CS- $AgRP^{Cre}$::Ai9</t>
+          <t>CS+ vs. CS- $AgRP^{TdTomato}$</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.86820468618306</v>
+        <v>4.071045384942271</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001126471716492334</v>
+        <v>0.0007169589080190462</v>
       </c>
       <c r="D3" t="n">
-        <v>0.004498278950884235</v>
+        <v>0.002864752925510998</v>
       </c>
       <c r="E3" t="n">
         <v>18</v>
@@ -713,17 +954,17 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>CS+ $AgRP^{Cre}$::Ai32 vs. CS+ $AgRP^{Cre}$::Ai9</t>
+          <t>CS+ $AgRP^{Chr2}$ vs. CS+ $AgRP^{TdTomato}$</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.6334034409326837</v>
+        <v>-0.6385697165238602</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5321028393629723</v>
+        <v>0.5290974488420613</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7810722470678075</v>
+        <v>0.7782507873129449</v>
       </c>
       <c r="E4" t="n">
         <v>35</v>
@@ -740,17 +981,17 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>CS- $AgRP^{Cre}$::Ai32 vs. CS- $AgRP^{Cre}$::Ai9</t>
+          <t>CS- $AgRP^{Chr2}$ vs. CS- $AgRP^{TdTomato}$</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.2110015206532778</v>
+        <v>-0.3347147102188648</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8344767922928508</v>
+        <v>0.7408431006654841</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8344767922928508</v>
+        <v>0.7782507873129449</v>
       </c>
       <c r="E5" t="n">
         <v>35</v>
@@ -845,25 +1086,25 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>35358.0357142857</v>
+        <v>357.6368045677257</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="F2" t="n">
-        <v>35358.0357142857</v>
+        <v>357.6368045677257</v>
       </c>
       <c r="G2" t="n">
-        <v>0.06278385990750582</v>
+        <v>0.001958664513125951</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8063875033728201</v>
+        <v>0.9649512441886082</v>
       </c>
       <c r="I2" t="n">
-        <v>0.005204757097254931</v>
+        <v>5.595871167951954e-05</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
@@ -882,32 +1123,32 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>86802.89285714272</v>
+        <v>8110824.337837837</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="F3" t="n">
-        <v>86802.89285714272</v>
+        <v>8110824.337837837</v>
       </c>
       <c r="G3" t="n">
-        <v>1.533582598102521</v>
+        <v>32.72706801239481</v>
       </c>
       <c r="H3" t="n">
-        <v>0.23925488415229</v>
+        <v>1.802140809188459e-06</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1133168240549651</v>
+        <v>0.4832199144720895</v>
       </c>
       <c r="J3" t="n">
         <v>1</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>****</t>
         </is>
       </c>
     </row>
@@ -921,25 +1162,25 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>8540.035714287311</v>
+        <v>62155.62597795203</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="F4" t="n">
-        <v>8540.035714287311</v>
+        <v>62155.62597795203</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1508803419738488</v>
+        <v>0.2507971217233481</v>
       </c>
       <c r="H4" t="n">
-        <v>0.704498933456376</v>
+        <v>0.6196493076792433</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01241723543706127</v>
+        <v>0.007114651077458727</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
@@ -1002,74 +1243,74 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>CS+ vs. CS- $AgRP^{Cre}$::Ai32</t>
+          <t>CS+ vs. CS- $AgRP^{Chr2}$</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.9150334722224046</v>
+        <v>4.710150927460696</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3954590502822469</v>
+        <v>0.0002018131283536008</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8609031135108373</v>
+        <v>0.0008070081750583043</v>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="F2" t="b">
         <v>1</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>***</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>CS+ vs. CS- $AgRP^{Cre}$::Ai9</t>
+          <t>CS+ vs. CS- $AgRP^{TdTomato}$</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.9278244102379976</v>
+        <v>3.782804296121693</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3892979859915215</v>
+        <v>0.001362615901580186</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8609031135108373</v>
+        <v>0.004082280068453892</v>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>**</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>CS+ $AgRP^{Cre}$::Ai32 vs. CS+ $AgRP^{Cre}$::Ai9</t>
+          <t>CS+ $AgRP^{Chr2}$ vs. CS+ $AgRP^{TdTomato}$</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.114813551691858</v>
+        <v>-0.2689910649606393</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9109514301871718</v>
+        <v>0.7897852915210531</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9200563944451975</v>
+        <v>0.7897852915210531</v>
       </c>
       <c r="E4" t="n">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -1083,20 +1324,20 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>CS- $AgRP^{Cre}$::Ai32 vs. CS- $AgRP^{Cre}$::Ai9</t>
+          <t>CS- $AgRP^{Chr2}$ vs. CS- $AgRP^{TdTomato}$</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3795866707892773</v>
+        <v>0.8134132651346534</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7172569973371534</v>
+        <v>0.4216376270296317</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9200563944451975</v>
+        <v>0.6654969655320846</v>
       </c>
       <c r="E5" t="n">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -1118,7 +1359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1129,163 +1370,41 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Source</t>
+          <t>t</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>SS</t>
+          <t>df</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>DF1</t>
+          <t>p-value</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>DF2</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>p-value</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>np2</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>eps</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
           <t>Significance</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Chr2</t>
-        </is>
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>ttest</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.04472480156623967</v>
       </c>
       <c r="C2" t="n">
-        <v>357.6368045677257</v>
+        <v>35</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="n">
-        <v>35</v>
-      </c>
-      <c r="F2" t="n">
-        <v>357.6368045677257</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.001958664513125951</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.9649512441886082</v>
-      </c>
-      <c r="I2" t="n">
-        <v>5.595871167951954e-05</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>CS</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>8110824.337837837</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" t="n">
-        <v>35</v>
-      </c>
-      <c r="F3" t="n">
-        <v>8110824.337837837</v>
-      </c>
-      <c r="G3" t="n">
-        <v>32.72706801239481</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1.802140809188459e-06</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.4832199144720895</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>****</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Interaction</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>62155.62597795203</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>35</v>
-      </c>
-      <c r="F4" t="n">
-        <v>62155.62597795203</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.2507971217233481</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.6196493076792433</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.007114651077458727</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
+        <v>0.9646078786515638</v>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -1297,6 +1416,436 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>U</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>p-value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Significance</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>mann whitney u test</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>178</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.8434248841137167</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>SS</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>DF</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>p-unc</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>np2</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Significance</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>sex</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5890.72544609386</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5890.72544609386</v>
+      </c>
+      <c r="F2" t="n">
+        <v>4.480223018119084</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.04191571963167575</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.1195356552695326</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Chr2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9904.935972409681</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>9904.935972409681</v>
+      </c>
+      <c r="F3" t="n">
+        <v>7.533252490321293</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.009722525739591403</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.1858536393574662</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>sex * Chr2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>19.11139601139564</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>19.11139601139564</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.01453527534124355</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.9047687838125829</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.0004402689669873994</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Residual</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>43389.34444444445</v>
+      </c>
+      <c r="D5" t="n">
+        <v>33</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1314.82861952862</v>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>comparison</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Chr2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>p-value</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>df</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sex</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Corrected p-value</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Significance</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Male vs Female</t>
+        </is>
+      </c>
+      <c r="C2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.398846660501386</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.1799891764009605</v>
+      </c>
+      <c r="F2" t="n">
+        <v>17</v>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="n">
+        <v>0.2155363719886932</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Male vs Female</t>
+        </is>
+      </c>
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.699966035169372</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.1118041747136091</v>
+      </c>
+      <c r="F3" t="n">
+        <v>16</v>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="n">
+        <v>0.2155363719886932</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Stim vs Control</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="n">
+        <v>-2.054683766740943</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.05888390015604484</v>
+      </c>
+      <c r="F4" t="n">
+        <v>17</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>0.2155363719886932</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Stim vs Control</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="n">
+        <v>-1.895303870430819</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.07668311174908261</v>
+      </c>
+      <c r="F5" t="n">
+        <v>16</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>0.2155363719886932</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1313,27 +1862,27 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>Df</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>p-value</t>
+          <t>Deviance</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Corrected p-value</t>
+          <t>Resid. Df</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>df</t>
+          <t>Resid. Dev</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>paired</t>
+          <t>Pr(&gt;Chi)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -1345,77 +1894,73 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>CS+ vs. CS- $AgRP^{Cre}$::Ai32</t>
+          <t>NULL</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.710150927460696</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.0002018131283536008</v>
-      </c>
+        <v>-2147483648</v>
+      </c>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
-        <v>0.0008070081750583043</v>
+        <v>36</v>
       </c>
       <c r="E2" t="n">
-        <v>17</v>
-      </c>
-      <c r="F2" t="b">
-        <v>1</v>
-      </c>
+        <v>593.368924636265</v>
+      </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>ns</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>CS+ vs. CS- $AgRP^{Cre}$::Ai9</t>
+          <t>factor(sex)</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.782804296121693</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001362615901580186</v>
+        <v>10.8735007378616</v>
       </c>
       <c r="D3" t="n">
-        <v>0.004082280068453892</v>
+        <v>35</v>
       </c>
       <c r="E3" t="n">
-        <v>18</v>
-      </c>
-      <c r="F3" t="b">
-        <v>1</v>
+        <v>582.4954238984034</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.0009754996496385144</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>***</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>CS+ $AgRP^{Cre}$::Ai32 vs. CS+ $AgRP^{Cre}$::Ai9</t>
+          <t>factor(Chr2)</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.2689910649606393</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7897852915210531</v>
+        <v>0.08212689813865381</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7897852915210531</v>
+        <v>34</v>
       </c>
       <c r="E4" t="n">
-        <v>35</v>
-      </c>
-      <c r="F4" t="b">
-        <v>0</v>
+        <v>582.4132970002647</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.7744355310343851</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -1426,370 +1971,27 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>CS- $AgRP^{Cre}$::Ai32 vs. CS- $AgRP^{Cre}$::Ai9</t>
+          <t>factor(sex):factor(Chr2)</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8134132651346534</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4216376270296317</v>
+        <v>20.15563171640781</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6654969655320846</v>
+        <v>33</v>
       </c>
       <c r="E5" t="n">
-        <v>35</v>
-      </c>
-      <c r="F5" t="b">
-        <v>0</v>
+        <v>562.2576652838569</v>
+      </c>
+      <c r="F5" t="n">
+        <v>7.138974623038199e-06</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>ns</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:K4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>SS</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>DF1</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>DF2</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>p-value</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>np2</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>eps</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Significance</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Chr2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>581904.7232142856</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="n">
-        <v>12</v>
-      </c>
-      <c r="F2" t="n">
-        <v>581904.7232142856</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1.742870645062744</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.2114037922936686</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.1268199847088633</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>CS</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2715345.723214285</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" t="n">
-        <v>12</v>
-      </c>
-      <c r="F3" t="n">
-        <v>2715345.723214285</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1.998603256627692</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.1828585171942262</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.1427716194243484</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Interaction</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>59570.43750000373</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>12</v>
-      </c>
-      <c r="F4" t="n">
-        <v>59570.43750000373</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.04384622899706103</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.8376526518626554</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.003640550382609151</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>t</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>p-value</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Corrected p-value</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>df</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>paired</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Significance</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>CS+ vs. CS- $AgRP^{Cre}$::Ai32</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.9945494888919661</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.3583567953582356</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.8184088438261954</v>
-      </c>
-      <c r="E2" t="n">
-        <v>6</v>
-      </c>
-      <c r="F2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>CS+ vs. CS- $AgRP^{Cre}$::Ai9</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>1.019705898228882</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.3472097286312514</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.8184088438261954</v>
-      </c>
-      <c r="E3" t="n">
-        <v>6</v>
-      </c>
-      <c r="F3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>CS+ $AgRP^{Cre}$::Ai32 vs. CS+ $AgRP^{Cre}$::Ai9</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>-0.7111539510310639</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.4921693688507079</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.8184088438261954</v>
-      </c>
-      <c r="E4" t="n">
-        <v>12</v>
-      </c>
-      <c r="F4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>CS- $AgRP^{Cre}$::Ai32 vs. CS- $AgRP^{Cre}$::Ai9</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>-0.4415424006853629</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.6669367789177437</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.8184088438261954</v>
-      </c>
-      <c r="E5" t="n">
-        <v>12</v>
-      </c>
-      <c r="F5" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>ns</t>
+          <t>****</t>
         </is>
       </c>
     </row>
